--- a/biology/Botanique/Martin_Cárdenas/Martin_Cárdenas.xlsx
+++ b/biology/Botanique/Martin_Cárdenas/Martin_Cárdenas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Martin_C%C3%A1rdenas</t>
+          <t>Martin_Cárdenas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Martín Cárdenas Hermosa (12 novembre 1899 - 14 février 1973) est un botaniste et agronome bolivien, considéré comme l'un des plus importants botanistes de l'histoire de la Bolivie. On lui doit la description de quelque 6 500 espèces de plantes de son pays natal.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Martin_C%C3%A1rdenas</t>
+          <t>Martin_Cárdenas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bachelier en Sciences et Lettres en 1918, il bénéficia d'une bourse pour poursuivre ses études à l'Instituto Normal Superior de La Paz, où il se spécialisa en sciences naturelles et chimie, et obtint son diplôme en 1922.
 Lors de ses vacances à Cochabamba, il faisait des randonnées dans les environs et recueillait des spécimens de plantes, dont il cherchait ensuite les caractéristiques dans les livres et revues de la bibliothèque municipale de La Paz. C'est à cette époque que Cardenas rencontra le botaniste suédois, Erik Asplund, qui portait aussi un vif intérêt à l'étude des plantes de Bolivie. Asplund joua un rôle important dans l'amélioration de ses connaissance en botanique et fut l'un de ses premiers mentors.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Martin_C%C3%A1rdenas</t>
+          <t>Martin_Cárdenas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Distinctions et reconnaissance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Son prestige au niveau international lui valut d'avoir plus de 50 espèces végétales et quatre genres, appartenant à quatre familles différentes, dédiés à son nom.
 Médaille agricole internationale de l'Institut interaméricain de coopération pour l'agriculture (IICA) ;
